--- a/data/trans_dic/P25C$productsfarma_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Habitat-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1074374739573608</v>
+        <v>0.1117230009099787</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.06913359882660358</v>
+        <v>0.07724631998976965</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.0251776218393877</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0418105105029004</v>
+        <v>0.04181051050290038</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03091566763513196</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007125547450489992</v>
+        <v>0.006967321619154757</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01520444425189664</v>
+        <v>0.01516961316361578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01469772341461099</v>
+        <v>0.0139716554678325</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06744132473332086</v>
+        <v>0.06278571827838401</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1264344515609577</v>
+        <v>0.1193982318634115</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06132532088809473</v>
+        <v>0.06655696286232241</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01078927424426353</v>
+        <v>0.01008781085450529</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007809243640856834</v>
+        <v>0.007828698690917207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01107143273604048</v>
+        <v>0.01083477068119645</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06716889949762128</v>
+        <v>0.06479940739562243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06766798081521226</v>
+        <v>0.06122773038115219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0521086766460828</v>
+        <v>0.05209585998515244</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05911089542500583</v>
+        <v>0.05911089542500584</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04060470253629535</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03164664861515405</v>
+        <v>0.03140518462892586</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02086951971766933</v>
+        <v>0.02023198826770096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03258964599823089</v>
+        <v>0.03287859222256534</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1080283132594221</v>
+        <v>0.1129483182574984</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0734859776889701</v>
+        <v>0.07468981394240104</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08121478350992417</v>
+        <v>0.08368220435229395</v>
       </c>
     </row>
     <row r="16">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="19">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13196</v>
+        <v>13723</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>12146</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="8">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1218</v>
+        <v>1191</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3837</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11532</v>
+        <v>10736</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11387</v>
+        <v>10753</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16010</v>
+        <v>17375</v>
       </c>
     </row>
     <row r="12">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1775</v>
+        <v>1660</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2747</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11052</v>
+        <v>10662</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5658</v>
+        <v>5119</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12931</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="16">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6388</v>
+        <v>6339</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2908</v>
+        <v>2820</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11120</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21806</v>
+        <v>22799</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10241</v>
+        <v>10409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27712</v>
+        <v>28554</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
     </row>
     <row r="24">
